--- a/biology/Botanique/Tillandsia_graebeneri/Tillandsia_graebeneri.xlsx
+++ b/biology/Botanique/Tillandsia_graebeneri/Tillandsia_graebeneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia graebeneri Mez est une plante de la famille des Bromeliaceae.
-Le terme graebeneri est une dédicace à Mr Graebener, directeur du jardin botanique de Karlsruhe[1].
+Le terme graebeneri est une dédicace à Mr Graebener, directeur du jardin botanique de Karlsruhe.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia graebeneri Mez, in Repert. Spec. Nov. Regni Veg. 14: 253 (1916) (pro « Graebenerii » )
-Diagnose originale[1] :
+Diagnose originale :
 « Foliis infundibuliformi-rosulatis, supra subglabris subtus lepidibus parvis appressisque paullo canescentibus; inflorescentia laxiuscule 2-pinnatim panniculata[sic] nullo modo strobiliformi; spicis 1-2 floris, flabellatis, quam bracteae primariae permulto brevioribus; bracteolis florigeris glaberrimis, laevibus, sepala subaequantibus; floribus stricte erectis; sepalis posticis binis fere medium usque connatis, rotundatis; petalis fulgide violaceis, strictissime tubulose erectis, quam genitalia sat brevioribus; stylo stamina superante. »
-Type : leg. Purpus ; « E republica Mexicana loco non indicato » ; (décrit d'un exemplaire en culture au jardin de Königsberg)[1].
+Type : leg. Purpus ; « E republica Mexicana loco non indicato » ; (décrit d'un exemplaire en culture au jardin de Königsberg).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,6 +621,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -628,10 +648,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Mexique[1],[2]</t>
+ Mexique,</t>
         </is>
       </c>
     </row>
@@ -660,6 +682,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
